--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243EA8BB-409F-4A5F-85D0-541192B1608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9104684F-3D4C-4AB4-80CF-4A44EEC0C1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="298">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -641,12 +641,6 @@
     <t>reclamhospi</t>
   </si>
   <si>
-    <t>\RETOUR_FAV\</t>
-  </si>
-  <si>
-    <t>\RETOUR_FAV</t>
-  </si>
-  <si>
     <t>Reporting_FAV</t>
   </si>
   <si>
@@ -933,6 +927,9 @@
   </si>
   <si>
     <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR_DEMAT QUOTIDIEN/</t>
+  </si>
+  <si>
+    <t>/RETOUR_FAV</t>
   </si>
 </sst>
 </file>
@@ -1370,19 +1367,19 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
         <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L1" t="s">
         <v>116</v>
@@ -1414,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J2" t="s">
         <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L2" t="s">
         <v>118</v>
@@ -1452,13 +1449,13 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
         <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
         <v>110</v>
@@ -2981,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -3002,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J1" t="s">
         <v>140</v>
@@ -3016,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
@@ -3037,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>135</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>1</v>
@@ -3072,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>160</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>45</v>
@@ -3107,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>143</v>
@@ -3121,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>45</v>
@@ -3142,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>147</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3156,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
@@ -3177,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>164</v>
@@ -3191,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -3212,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J7" t="s">
         <v>177</v>
@@ -3226,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3247,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J8" t="s">
         <v>180</v>
@@ -3261,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>45</v>
@@ -3282,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>126</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3296,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
@@ -3317,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>126</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3331,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>45</v>
@@ -3352,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>189</v>
@@ -3366,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>1</v>
@@ -3387,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>156</v>
@@ -3401,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>45</v>
@@ -3422,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>132</v>
@@ -3436,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>45</v>
@@ -3457,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3471,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>45</v>
@@ -3492,13 +3489,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3506,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>1</v>
@@ -3527,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>185</v>
@@ -3541,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
@@ -3562,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>190</v>
@@ -3597,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>152</v>
@@ -3611,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>54</v>
@@ -3632,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>199</v>
@@ -3656,7 +3653,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -3698,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>105</v>
@@ -3709,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -3730,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J2" t="s">
         <v>113</v>
@@ -3741,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3762,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J3" t="s">
         <v>119</v>
@@ -3799,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -3820,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
         <v>197</v>
@@ -3834,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3855,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>90</v>
@@ -3869,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3890,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>99</v>
@@ -3904,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>97</v>
@@ -3925,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>96</v>
@@ -3939,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>97</v>
@@ -3960,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>170</v>
@@ -3974,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>97</v>
@@ -3995,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>171</v>
@@ -4015,8 +4012,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -4048,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -4057,16 +4054,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4110,31 +4107,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="H1" s="2">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4180,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>194</v>
@@ -4192,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4238,31 +4235,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4270,31 +4267,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4334,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -4346,7 +4343,7 @@
         <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
         <v>198</v>
@@ -4355,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9104684F-3D4C-4AB4-80CF-4A44EEC0C1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBF67B-2A93-41EE-9721-92F7ADE734EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="290">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -794,27 +794,6 @@
     <t>PEC_Optique</t>
   </si>
   <si>
-    <t>/RETOUR MAJ RIB CBTP/</t>
-  </si>
-  <si>
-    <t>/RETOUR MAJ AGAPS INTER AMC/</t>
-  </si>
-  <si>
-    <t>\RETOUR HOSPI\RETOUR RC INDETERMINABLE</t>
-  </si>
-  <si>
-    <t>\RETOUR HOSPI\RETOUR RC FORCE</t>
-  </si>
-  <si>
-    <t>\RETOUR FAVEOLE</t>
-  </si>
-  <si>
-    <t>\RETOUR FAVMGEFI</t>
-  </si>
-  <si>
-    <t>\RETOUR FAVBALMA</t>
-  </si>
-  <si>
     <t>FAV</t>
   </si>
   <si>
@@ -918,9 +897,6 @@
   </si>
   <si>
     <t>/RETOUR_FAVBALMA</t>
-  </si>
-  <si>
-    <t>/RETOUR FAV</t>
   </si>
   <si>
     <t>/RETOUR_CMU-C</t>
@@ -1326,10 +1302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,10 +1320,11 @@
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1373,19 +1350,22 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
         <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1411,19 +1391,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
         <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1449,15 +1432,18 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J3" t="s">
         <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2999,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
         <v>140</v>
@@ -3034,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>221</v>
@@ -3069,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>160</v>
@@ -3104,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>143</v>
@@ -3139,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>147</v>
@@ -3174,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>164</v>
@@ -3209,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
         <v>177</v>
@@ -3244,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J8" t="s">
         <v>180</v>
@@ -3279,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>126</v>
@@ -3314,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>126</v>
@@ -3349,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>189</v>
@@ -3384,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>156</v>
@@ -3419,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>132</v>
@@ -3454,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>222</v>
@@ -3489,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>222</v>
@@ -3524,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>185</v>
@@ -3559,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>190</v>
@@ -3594,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>152</v>
@@ -3629,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>199</v>
@@ -3653,14 +3639,14 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.140625" customWidth="1"/>
@@ -3674,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3695,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>105</v>
@@ -3706,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -3727,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J2" t="s">
         <v>113</v>
@@ -3738,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3759,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J3" t="s">
         <v>119</v>
@@ -3775,14 +3761,14 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" customWidth="1"/>
@@ -3796,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -3817,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J1" t="s">
         <v>197</v>
@@ -3831,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3852,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>90</v>
@@ -3866,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3887,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>99</v>
@@ -3901,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>97</v>
@@ -3922,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>96</v>
@@ -3936,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>97</v>
@@ -3957,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>170</v>
@@ -3971,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>97</v>
@@ -3992,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>171</v>
@@ -4012,8 +3998,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4025,7 +4011,7 @@
     <col min="7" max="7" width="31.5703125" customWidth="1"/>
     <col min="9" max="9" width="52.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4054,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4128,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>204</v>
@@ -4145,7 +4131,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,7 +4145,7 @@
     <col min="7" max="7" width="46.5703125" customWidth="1"/>
     <col min="9" max="9" width="71" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="56" customWidth="1"/>
+    <col min="11" max="11" width="71" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4189,16 +4175,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +4197,7 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4308,8 +4294,8 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBF67B-2A93-41EE-9721-92F7ADE734EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB943A5-535A-431D-B97F-63AD56DA5229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -875,9 +875,6 @@
     <t>/RETOUR_HOSPI/RETOUR_RECLAMATION_HOSPI</t>
   </si>
   <si>
-    <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR_DEMAT_TEMPO</t>
-  </si>
-  <si>
     <t>/RETOUR_MAJ_RIB_CBTP</t>
   </si>
   <si>
@@ -906,6 +903,9 @@
   </si>
   <si>
     <t>/RETOUR_FAV</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR DEMAT TEMPO</t>
   </si>
 </sst>
 </file>
@@ -3639,8 +3639,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>105</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J2" t="s">
         <v>113</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J3" t="s">
         <v>119</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J1" t="s">
         <v>197</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>90</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>99</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>97</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>96</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>97</v>
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>170</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>97</v>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>171</v>
@@ -4040,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>252</v>
@@ -4114,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>204</v>
@@ -4131,7 +4131,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>253</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>253</v>
@@ -4294,7 +4294,7 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB943A5-535A-431D-B97F-63AD56DA5229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26946A15-E87E-44D7-9AE9-27B3B8D6D93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="289">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -897,9 +897,6 @@
   </si>
   <si>
     <t>/RETOUR_CMU-C</t>
-  </si>
-  <si>
-    <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR_DEMAT QUOTIDIEN/</t>
   </si>
   <si>
     <t>/RETOUR_FAV</t>
@@ -3639,7 +3636,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3660,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3681,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>105</v>
@@ -4040,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>252</v>
@@ -4130,8 +4127,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>253</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>253</v>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26946A15-E87E-44D7-9AE9-27B3B8D6D93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F597BA3-6BEC-40D0-9EA6-2EF2C2D5FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -686,21 +686,12 @@
     <t>retouravisannulationcbtp</t>
   </si>
   <si>
-    <t>\\CBTP</t>
-  </si>
-  <si>
-    <t>\\ALMERYS</t>
-  </si>
-  <si>
     <t>retouravisannulationtramealmerys</t>
   </si>
   <si>
     <t>TRAME_ALMERYS</t>
   </si>
   <si>
-    <t>\RETOUR_RECHERCHE FACTURE INTERIALE\INTERIALE</t>
-  </si>
-  <si>
     <t>Trame_Reclamation_Optique</t>
   </si>
   <si>
@@ -719,12 +710,6 @@
     <t>Facture interiale</t>
   </si>
   <si>
-    <t>\CBTP\</t>
-  </si>
-  <si>
-    <t>\ALMERYS\</t>
-  </si>
-  <si>
     <t>Saisie RIB</t>
   </si>
   <si>
@@ -903,6 +888,21 @@
   </si>
   <si>
     <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR DEMAT TEMPO</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE INTERIALE/INTERIALE</t>
+  </si>
+  <si>
+    <t>/CBTP/</t>
+  </si>
+  <si>
+    <t>/ALMERYS/</t>
+  </si>
+  <si>
+    <t>/CBTP</t>
+  </si>
+  <si>
+    <t>/ALMERYS</t>
   </si>
 </sst>
 </file>
@@ -1341,22 +1341,22 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J1" t="s">
         <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M1" t="s">
         <v>116</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J2" t="s">
         <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M2" t="s">
         <v>118</v>
@@ -1429,16 +1429,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J3" t="s">
         <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M3" t="s">
         <v>110</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
         <v>140</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>45</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>135</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>1</v>
@@ -3052,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>160</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>45</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>143</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>45</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>147</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>164</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J7" t="s">
         <v>177</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J8" t="s">
         <v>180</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>45</v>
@@ -3262,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>126</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
@@ -3297,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>126</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>45</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>189</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>1</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>156</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>45</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>132</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>45</v>
@@ -3437,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>45</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>1</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>185</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>190</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>152</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>54</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>199</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>105</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J2" t="s">
         <v>113</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J3" t="s">
         <v>119</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>197</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>90</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>99</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>97</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>96</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>97</v>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>170</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>97</v>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>171</v>
@@ -4037,16 +4037,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>204</v>
@@ -4127,7 +4127,7 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -4175,13 +4175,13 @@
         <v>195</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4195,7 +4195,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,7 +4221,7 @@
         <v>212</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>215</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>212</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -4262,10 +4262,10 @@
         <v>214</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>212</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4291,8 +4291,8 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
         <v>198</v>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="J1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA675DB2-DF0E-4CEA-8605-EA27AEB2016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EF7B50-C39C-482E-8B00-C9A0BE1E7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="209">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -1317,26 +1317,26 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Feuil11"/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.140625" customWidth="1"/>
     <col min="2" max="3" width="68.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="68.85546875" customWidth="1"/>
-    <col min="11" max="12" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="68.85546875" customWidth="1"/>
+    <col min="10" max="11" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1346,35 +1346,32 @@
       <c r="C1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5">
-        <v>0</v>
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="5">
-        <v>0</v>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1384,35 +1381,32 @@
       <c r="C2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1422,35 +1416,32 @@
       <c r="C3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>192</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1460,35 +1451,32 @@
       <c r="C4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>193</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1498,35 +1486,32 @@
       <c r="C5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>194</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1536,35 +1521,32 @@
       <c r="C6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>195</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1574,35 +1556,32 @@
       <c r="C7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>196</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1612,35 +1591,32 @@
       <c r="C8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>197</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1650,35 +1626,32 @@
       <c r="C9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>198</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1688,35 +1661,32 @@
       <c r="C10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>199</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -1726,35 +1696,32 @@
       <c r="C11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>200</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1764,48 +1731,45 @@
       <c r="C12" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1846,7 +1810,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EF7B50-C39C-482E-8B00-C9A0BE1E7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D120322-3230-40DB-9010-4E3ECDC0200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -663,6 +663,45 @@
   </si>
   <si>
     <t>/RETOUR_SE/RETOUR_RECLAMATION SE/CBTP</t>
+  </si>
+  <si>
+    <t>POLE</t>
+  </si>
+  <si>
+    <t>/RETOUR_AGLAE_FRAUDE</t>
+  </si>
+  <si>
+    <t>/RETOUR_SUPPORT_AGLAE</t>
+  </si>
+  <si>
+    <t>Trame Aglaé - v1.1 FRAUDE AG2R</t>
+  </si>
+  <si>
+    <t>Trame Aglaé - v1.1 FRAUDE MG</t>
+  </si>
+  <si>
+    <t>Trame Aglaé - v1.1 FRAUDE MMS</t>
+  </si>
+  <si>
+    <t>Trame Aglaé - v1.1 FRAUDE INTERIALE</t>
+  </si>
+  <si>
+    <t>Trame_Aglaé-V1.0-synthèse</t>
+  </si>
+  <si>
+    <t>inovaglaeag2r</t>
+  </si>
+  <si>
+    <t>inovaglaefraudemg</t>
+  </si>
+  <si>
+    <t>inovaglaefraudemms</t>
+  </si>
+  <si>
+    <t>inovaglaefraudeinteriale</t>
+  </si>
+  <si>
+    <t>inovaglaesynthese</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1256,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,8 +1358,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,23 +1821,201 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Feuil12"/>
-  <dimension ref="A2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="60.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D120322-3230-40DB-9010-4E3ECDC0200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACCE6B-AFE0-4CDA-B8D0-49BD48B30B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Feuil10" sheetId="10" r:id="rId10"/>
     <sheet name="Feuil11" sheetId="11" r:id="rId11"/>
     <sheet name="Feuil12" sheetId="12" r:id="rId12"/>
+    <sheet name="Feuil14" sheetId="14" r:id="rId13"/>
+    <sheet name="Feuil13" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="233">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -702,6 +704,39 @@
   </si>
   <si>
     <t>inovaglaesynthese</t>
+  </si>
+  <si>
+    <t>/RETOUR_FAVNUMENT</t>
+  </si>
+  <si>
+    <t>/RETOUR_FAVPHARMA</t>
+  </si>
+  <si>
+    <t>NUMENT</t>
+  </si>
+  <si>
+    <t>Retour</t>
+  </si>
+  <si>
+    <t>retour call</t>
+  </si>
+  <si>
+    <t>favpharma</t>
+  </si>
+  <si>
+    <t>favnument</t>
+  </si>
+  <si>
+    <t>/RETOUR_AGLAE_100 % optique</t>
+  </si>
+  <si>
+    <t>aglae</t>
+  </si>
+  <si>
+    <t>inovaglae100</t>
+  </si>
+  <si>
+    <t>Extraction</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1394,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,10 +1856,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Feuil12"/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,8 +2050,144 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E046DF-6906-4894-91CC-F871F4CD6A27}">
+  <sheetPr codeName="Feuil14"/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF15B2A4-2E15-464A-8C17-EC87886F15CA}">
+  <sheetPr codeName="Feuil13"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2778,7 +2949,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,79 +2959,79 @@
     <col min="5" max="5" width="41.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="9" max="9" width="57.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="48.7109375" customWidth="1"/>
+    <col min="11" max="11" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FACCE6B-AFE0-4CDA-B8D0-49BD48B30B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5A808-26D4-47FD-B209-59C3BCAF6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1858,8 +1858,8 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1898,7 @@
         <v>209</v>
       </c>
       <c r="H1" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>210</v>
@@ -1933,7 +1933,7 @@
         <v>209</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>210</v>
@@ -1968,7 +1968,7 @@
         <v>209</v>
       </c>
       <c r="H3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>210</v>
@@ -2003,7 +2003,7 @@
         <v>209</v>
       </c>
       <c r="H4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>210</v>
@@ -2038,7 +2038,7 @@
         <v>209</v>
       </c>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>211</v>
@@ -2073,7 +2073,7 @@
         <v>230</v>
       </c>
       <c r="H6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>229</v>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5A808-26D4-47FD-B209-59C3BCAF6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC30B03-CC98-4F42-99BE-DF16F24193AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1858,8 +1858,8 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC30B03-CC98-4F42-99BE-DF16F24193AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66EFE50-3BEE-48B9-999F-B417D6D3E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="236">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -737,6 +737,15 @@
   </si>
   <si>
     <t>Extraction</t>
+  </si>
+  <si>
+    <t>/RETOUR_DEFRAIEMENT/</t>
+  </si>
+  <si>
+    <t>MASQUE</t>
+  </si>
+  <si>
+    <t>defraiment</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1867,7 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3185,7 +3194,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -3315,15 +3324,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
@@ -3372,6 +3381,44 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66EFE50-3BEE-48B9-999F-B417D6D3E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A803B-FC78-469D-825A-6CBC6EF0A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3327,7 +3327,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514A803B-FC78-469D-825A-6CBC6EF0A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DBA008-939A-459F-B0B8-00E71CDE3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="239">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -746,6 +746,15 @@
   </si>
   <si>
     <t>defraiment</t>
+  </si>
+  <si>
+    <t>psfemajagaps</t>
+  </si>
+  <si>
+    <t>/RETOUR_MAJ_AGAPS_PS_EN_FE</t>
+  </si>
+  <si>
+    <t>PS</t>
   </si>
 </sst>
 </file>
@@ -812,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,6 +836,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2833,10 +2846,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,42 +2857,42 @@
     <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
     <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
     <col min="9" max="9" width="54.7109375" customWidth="1"/>
     <col min="10" max="10" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2945,6 +2958,38 @@
       </c>
       <c r="J3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2958,7 +3003,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,8 +3371,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,79 +3390,79 @@
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="14">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="14">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="16" t="s">
         <v>234</v>
       </c>
     </row>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DBA008-939A-459F-B0B8-00E71CDE3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C682682-2B7C-4433-A846-EB614DD06CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="240">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -127,9 +127,6 @@
     <t>hospidemat</t>
   </si>
   <si>
-    <t>Retour demat</t>
-  </si>
-  <si>
     <t>/RETOUR_CONVENTION/</t>
   </si>
   <si>
@@ -755,6 +752,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>demat</t>
+  </si>
+  <si>
+    <t>etat du contôle</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,12 +796,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,21 +818,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1182,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1197,25 +1192,25 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>137</v>
-      </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1223,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1244,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" t="s">
         <v>138</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" t="s">
-        <v>139</v>
-      </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1264,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1273,31 +1268,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1318,92 +1313,92 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="100.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="53.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="5"/>
-    <col min="9" max="9" width="32.7109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="100.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="53.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="32.7109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="7"/>
-    </row>
-    <row r="20" spans="5:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="20" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,424 +1427,424 @@
     <col min="10" max="11" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="G6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>113</v>
+      <c r="J12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1893,222 +1888,222 @@
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="J5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>232</v>
+      <c r="K6" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -2152,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2166,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2174,7 +2169,7 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2187,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
@@ -2238,599 +2233,599 @@
     <col min="11" max="11" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="K12" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="K16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5">
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2848,8 +2843,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,36 +2859,36 @@
     <col min="10" max="10" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2901,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2922,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2933,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2954,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2965,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -2977,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -2986,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3002,8 +2997,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -3032,25 +3027,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="H1" s="4">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3058,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>25</v>
@@ -3067,25 +3062,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -3114,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>26</v>
@@ -3128,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
@@ -3149,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>24</v>
@@ -3163,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -3172,60 +3167,60 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K6" s="8" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3239,8 +3234,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -3281,20 +3276,20 @@
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
@@ -3334,31 +3329,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H1" s="2">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3390,80 +3385,80 @@
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="14">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="12">
+        <v>0</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="14">
-        <v>0</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="J1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3482,17 +3477,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="34" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="5"/>
-    <col min="9" max="9" width="47.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="53.140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="43.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="34" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="47.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="53.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3500,31 +3495,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3532,37 +3527,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>98</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>101</v>
+      <c r="E2" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="7"/>
-    </row>
-    <row r="20" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3596,31 +3591,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" t="s">
         <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DBA008-939A-459F-B0B8-00E71CDE3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="Feuil14" sheetId="14" r:id="rId13"/>
     <sheet name="Feuil13" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -760,7 +759,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +807,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -821,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -835,11 +840,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -1308,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -1411,18 +1418,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="2" max="3" width="68.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" customWidth="1"/>
@@ -1432,388 +1440,388 @@
     <col min="10" max="11" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="17">
+        <v>0</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="17" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1876,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -2116,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E046DF-6906-4894-91CC-F871F4CD6A27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2202,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF15B2A4-2E15-464A-8C17-EC87886F15CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil13"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2215,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -2834,7 +2842,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+  <sortState ref="A2:K17">
     <sortCondition ref="A1:A17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2844,12 +2852,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +3006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -3235,7 +3243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -3309,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -3367,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -3390,79 +3398,79 @@
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="14">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="13">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="14">
-        <v>0</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13">
+        <v>0</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3472,7 +3480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -3569,7 +3577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +813,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -826,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -847,6 +853,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,7 +1430,7 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1888,8 +1896,8 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,38 +2018,38 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="21" t="s">
         <v>215</v>
       </c>
     </row>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E41BF-9ADB-4CC4-BF46-DC7F2982D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="11"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="240">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -754,12 +755,15 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>contrôle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1168,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -1323,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -1426,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -1892,11 +1896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2132,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2218,7 +2222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Feuil13"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2231,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -2850,7 +2854,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
     <sortCondition ref="A1:A17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2860,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -3014,12 +3018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>228</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="H1" s="4">
         <v>0</v>
@@ -3251,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:L35"/>
   <sheetViews>
@@ -3325,7 +3329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -3383,7 +3387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -3488,7 +3492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -3585,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E41BF-9ADB-4CC4-BF46-DC7F2982D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2E937-BEDC-429A-B12E-05FEF9F16451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
     <t>PS</t>
   </si>
   <si>
-    <t>contrôle</t>
+    <t>etat du contôle</t>
   </si>
 </sst>
 </file>
@@ -3023,7 +3023,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2E937-BEDC-429A-B12E-05FEF9F16451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112E69A-0148-423C-988D-C76180EA9A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1176,8 +1176,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3022,7 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112E69A-0148-423C-988D-C76180EA9A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FB7E8-77A9-4F69-AFF8-151467FF93C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,18 +802,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -849,16 +837,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,7 +1160,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1435,409 +1419,410 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="68.85546875" customWidth="1"/>
-    <col min="10" max="11" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="55" style="5" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="68.85546875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="41.85546875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="17">
-        <v>0</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="17">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1841,7 @@
       <c r="F12" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="5">
@@ -1873,20 +1858,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>4</v>
       </c>
     </row>
@@ -2022,38 +2007,38 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="17" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2140,11 +2125,16 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3023,7 +3013,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,79 +3400,79 @@
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13">
-        <v>0</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="12">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="13">
-        <v>0</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="12">
+        <v>0</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>234</v>
       </c>
     </row>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FB7E8-77A9-4F69-AFF8-151467FF93C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD12BB3-BB1D-4F20-8FF3-9DAD9577F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-19080" yWindow="3150" windowWidth="4920" windowHeight="7095" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Feuil14" sheetId="14" r:id="rId13"/>
     <sheet name="Feuil13" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2125,15 +2125,19 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3012,8 +3016,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,7 +3386,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD12BB3-BB1D-4F20-8FF3-9DAD9577F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BC4F9-1DE3-4A59-8BB2-5B9E9852BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-19080" yWindow="3150" windowWidth="4920" windowHeight="7095" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -834,7 +834,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1406,7 +1405,7 @@
     </row>
     <row r="20" spans="5:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="11"/>
+      <c r="E23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,23 +1541,23 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>182</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1567,7 +1566,7 @@
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>193</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1631,7 +1630,7 @@
       <c r="F6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="5">
@@ -1666,7 +1665,7 @@
       <c r="F7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="5">
@@ -1736,7 +1735,7 @@
       <c r="F9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="5">
@@ -1806,7 +1805,7 @@
       <c r="F11" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="5">
@@ -1858,16 +1857,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="11"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2007,43 +2006,43 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2077,8 +2076,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2125,7 +2124,7 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2322,38 +2321,38 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3016,8 +3015,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,178 +3031,178 @@
     <col min="11" max="11" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3404,79 +3403,79 @@
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="12">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="12">
-        <v>0</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="11">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>234</v>
       </c>
     </row>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BC4F9-1DE3-4A59-8BB2-5B9E9852BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F7F952-1AAC-4F67-A09A-16FF6CDED1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1417,8 +1417,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,7 +3015,7 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F7F952-1AAC-4F67-A09A-16FF6CDED1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1AC0C-D156-40AA-B855-84A4D4168A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="239">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>PACKSPE_OPTIQUE</t>
-  </si>
-  <si>
-    <t>/RETOUR_SE/RETOUR_RECLAMATION SE/CBTP</t>
   </si>
   <si>
     <t>POLE</t>
@@ -1417,8 +1414,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -1847,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>113</v>
@@ -1906,34 +1903,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1" s="5">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1941,34 +1938,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1976,34 +1973,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2011,34 +2008,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="J4" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2046,34 +2043,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2081,34 +2078,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2978,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
@@ -2990,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -2999,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3036,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3045,25 +3042,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H1" s="5">
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3071,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -3080,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3446,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>81</v>
@@ -3458,7 +3455,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>82</v>
@@ -3467,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K2" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1AC0C-D156-40AA-B855-84A4D4168A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8FB75A-D793-4966-A026-6D51C3C77163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,8 +1414,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,8 +1881,8 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1921,7 @@
         <v>208</v>
       </c>
       <c r="H1" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>209</v>
@@ -1956,7 +1956,7 @@
         <v>208</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>209</v>
@@ -1991,7 +1991,7 @@
         <v>208</v>
       </c>
       <c r="H3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>209</v>
@@ -2025,8 +2025,8 @@
       <c r="G4" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="16">
-        <v>0</v>
+      <c r="H4" s="5">
+        <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>209</v>
@@ -2061,7 +2061,7 @@
         <v>208</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>210</v>
@@ -2096,7 +2096,7 @@
         <v>229</v>
       </c>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>228</v>
@@ -2216,7 +2216,9 @@
   <sheetPr codeName="Feuil13"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3382,7 +3384,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8FB75A-D793-4966-A026-6D51C3C77163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310C641-712B-4EA3-A7AE-9C70A3976105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2860,8 +2860,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,35 +2972,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>237</v>
       </c>
     </row>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D310C641-712B-4EA3-A7AE-9C70A3976105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A630705-D49D-4FBA-AFA5-0B2F9D109C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9795" yWindow="1770" windowWidth="4920" windowHeight="7095" tabRatio="772" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1881,8 +1881,8 @@
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,8 +2121,8 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,8 +2860,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,8 +3014,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,8 +3383,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,8 +3488,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A630705-D49D-4FBA-AFA5-0B2F9D109C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB994CE-5C0A-49FF-8BD3-2EDE5954AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9795" yWindow="1770" windowWidth="4920" windowHeight="7095" tabRatio="772" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="240">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -646,9 +646,6 @@
     <t>Trame_centre de soins</t>
   </si>
   <si>
-    <t>Trame gestion des illisibles.</t>
-  </si>
-  <si>
     <t>Trame_Pack_spe_Audio</t>
   </si>
   <si>
@@ -755,6 +752,12 @@
   </si>
   <si>
     <t>etat du contôle</t>
+  </si>
+  <si>
+    <t>illisibles</t>
+  </si>
+  <si>
+    <t>N1</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1417,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,34 +1441,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D1" s="5">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H1" s="5">
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1473,98 +1476,98 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>182</v>
+      <c r="F4" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>193</v>
+      <c r="I4" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>202</v>
@@ -1578,28 +1581,28 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>203</v>
@@ -1613,34 +1616,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>204</v>
@@ -1683,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1695,22 +1698,22 @@
         <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1718,28 +1721,28 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>15</v>
+        <v>189</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>205</v>
@@ -1753,28 +1756,28 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>206</v>
@@ -1788,34 +1791,34 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>41</v>
+        <v>191</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1823,34 +1826,34 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1903,34 +1906,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="5">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" s="5">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1938,34 +1941,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1973,34 +1976,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2008,34 +2011,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2043,34 +2046,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2078,34 +2081,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2232,7 +2235,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2244,7 @@
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" customWidth="1"/>
     <col min="8" max="8" width="7.140625" customWidth="1"/>
@@ -2977,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -2989,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -2998,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +3017,7 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3035,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3044,25 +3047,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H1" s="5">
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3070,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -3079,25 +3082,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>81</v>
@@ -3457,7 +3460,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>82</v>
@@ -3466,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB994CE-5C0A-49FF-8BD3-2EDE5954AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1EB040-A6BF-416E-ACB4-B6591A6DA282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1417,8 +1417,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,8 +2234,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1EB040-A6BF-416E-ACB4-B6591A6DA282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF3B1F-2F3F-439F-827C-A3D8C355201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1417,8 +1417,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1485,7 @@
         <v>239</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>181</v>
@@ -2234,7 +2234,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF3B1F-2F3F-439F-827C-A3D8C355201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B590AD-0752-4589-94F2-2269B1F5B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="243">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -619,9 +619,6 @@
     <t>/RETOUR_SE/RETOUR_ETAT_DES_RESTES</t>
   </si>
   <si>
-    <t>/RETOUR_GESTION_ILLISIBLE</t>
-  </si>
-  <si>
     <t>/RETOUR_AUDIO/RETOUR_PACK SPE_FACTURE AUDIO</t>
   </si>
   <si>
@@ -758,6 +755,18 @@
   </si>
   <si>
     <t>N1</t>
+  </si>
+  <si>
+    <t>/RETOUR_GESTION_ILLISIBLE/TPS/ALMERYS</t>
+  </si>
+  <si>
+    <t>/RETOUR_GESTION_ILLISIBLE/TPS/CBTP</t>
+  </si>
+  <si>
+    <t>/RETOUR_GESTION_ILLISIBLE/ADO/ALMERYS</t>
+  </si>
+  <si>
+    <t>/RETOUR_GESTION_ILLISIBLE/ADO/CBTP</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1426,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1491,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>41</v>
@@ -1500,10 +1509,10 @@
         <v>192</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1511,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -1532,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1546,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1567,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1581,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1602,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1616,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -1637,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1651,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -1672,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1686,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1707,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -1742,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1756,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -1777,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1856,11 +1865,110 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="10"/>
@@ -1906,34 +2014,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="5">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" s="5">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1941,34 +2049,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1976,34 +2084,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2011,34 +2119,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2046,34 +2154,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2081,34 +2189,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2980,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -2992,7 +3100,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -3001,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3038,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3047,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H1" s="5">
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3073,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -3082,25 +3190,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3448,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>81</v>
@@ -3460,7 +3568,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>82</v>
@@ -3469,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>135</v>
       </c>
       <c r="K2" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B590AD-0752-4589-94F2-2269B1F5B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701E1A8-A719-4A0D-9B73-DDCE41641BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="242">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -361,9 +361,6 @@
     <t>RECLAM_TIERS</t>
   </si>
   <si>
-    <t>/RETOUR_RECHERCHE FACTURE INTERIALE/INTERIALE/</t>
-  </si>
-  <si>
     <t>.xlsx//nb fichier pdf</t>
   </si>
   <si>
@@ -553,9 +550,6 @@
     <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR DEMAT TEMPO</t>
   </si>
   <si>
-    <t>/RETOUR_RECHERCHE FACTURE INTERIALE/INTERIALE</t>
-  </si>
-  <si>
     <t>/CBTP/</t>
   </si>
   <si>
@@ -767,6 +761,9 @@
   </si>
   <si>
     <t>/RETOUR_GESTION_ILLISIBLE/ADO/CBTP</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE INTERIALE/</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1165,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1208,22 +1205,22 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
         <v>36</v>
       </c>
       <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
         <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>137</v>
       </c>
       <c r="M1" t="s">
         <v>36</v>
@@ -1255,16 +1252,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
       </c>
       <c r="K2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" t="s">
         <v>138</v>
-      </c>
-      <c r="L2" t="s">
-        <v>139</v>
       </c>
       <c r="M2" t="s">
         <v>38</v>
@@ -1296,16 +1293,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -1365,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>70</v>
@@ -1379,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>71</v>
@@ -1426,8 +1423,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="5">
         <v>0</v>
@@ -1462,7 +1459,7 @@
         <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>74</v>
@@ -1471,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1485,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>41</v>
@@ -1506,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1520,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -1532,7 +1529,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -1541,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1555,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1567,7 +1564,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>41</v>
@@ -1576,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1590,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1602,7 +1599,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>41</v>
@@ -1611,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1625,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -1637,7 +1634,7 @@
         <v>85</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>15</v>
@@ -1646,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1660,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -1672,7 +1669,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -1681,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1695,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1707,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>15</v>
@@ -1716,13 +1713,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1730,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -1742,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>41</v>
@@ -1751,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1765,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -1777,7 +1774,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>41</v>
@@ -1786,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1800,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
@@ -1812,7 +1809,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>15</v>
@@ -1821,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1835,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -1847,7 +1844,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>41</v>
@@ -1856,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1870,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -1882,7 +1879,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>20</v>
@@ -1891,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1905,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -1917,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>20</v>
@@ -1926,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1940,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -1952,7 +1949,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>20</v>
@@ -1961,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,34 +2011,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="5">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H1" s="5">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2049,34 +2046,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2084,34 +2081,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2119,34 +2116,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2154,34 +2151,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2189,34 +2186,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2252,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -2273,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
         <v>84</v>
@@ -2287,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2308,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
@@ -2366,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>14</v>
@@ -2387,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>49</v>
@@ -2401,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -2422,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>105</v>
@@ -2436,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -2457,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -2492,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>50</v>
@@ -2506,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -2527,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2541,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -2562,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>62</v>
@@ -2576,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -2597,13 +2594,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -2632,13 +2629,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -2667,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>78</v>
@@ -2681,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -2702,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>58</v>
@@ -2716,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -2737,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>45</v>
@@ -2751,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -2772,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>106</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -2807,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>106</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2821,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -2842,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>76</v>
@@ -2856,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -2877,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>79</v>
@@ -2912,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>56</v>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
@@ -2947,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>86</v>
@@ -2992,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3013,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>29</v>
@@ -3024,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -3045,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -3056,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3077,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
@@ -3088,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -3100,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -3109,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3155,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H1" s="5">
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3181,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -3190,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3216,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -3237,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>26</v>
@@ -3251,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -3272,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>24</v>
@@ -3286,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -3307,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>66</v>
@@ -3321,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3342,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>67</v>
@@ -3404,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>88</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3478,7 +3475,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>91</v>
@@ -3495,7 +3492,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,13 +3539,13 @@
         <v>83</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>81</v>
@@ -3568,7 +3565,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>82</v>
@@ -3577,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3599,8 +3596,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,7 +3623,7 @@
         <v>99</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
@@ -3638,7 +3635,7 @@
         <v>102</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -3658,7 +3655,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -3670,7 +3667,7 @@
         <v>103</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -3696,8 +3693,8 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -3731,7 +3728,7 @@
         <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
         <v>85</v>
@@ -3740,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701E1A8-A719-4A0D-9B73-DDCE41641BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58B130-FF0E-4215-B87E-01EC0486D10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="244">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -764,6 +764,12 @@
   </si>
   <si>
     <t>/RETOUR_RECHERCHE FACTURE INTERIALE/</t>
+  </si>
+  <si>
+    <t>recherchefacturemacif</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE MACIF/</t>
   </si>
 </sst>
 </file>
@@ -3691,10 +3697,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Feuil10"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,8 +3711,8 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="62.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
     <col min="9" max="9" width="124.42578125" customWidth="1"/>
     <col min="10" max="10" width="143.28515625" customWidth="1"/>
   </cols>
@@ -3743,6 +3749,38 @@
         <v>109</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E58B130-FF0E-4215-B87E-01EC0486D10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54350B65-B97B-416E-A18E-12EDC11B690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="251">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -770,6 +770,27 @@
   </si>
   <si>
     <t>/RETOUR_RECHERCHE FACTURE MACIF/</t>
+  </si>
+  <si>
+    <t>RETOUR_DEMANDE_MAIL</t>
+  </si>
+  <si>
+    <t>remontées</t>
+  </si>
+  <si>
+    <t>Trame affectation</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>remonte</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,9 +1210,10 @@
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="26.85546875" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1253,11 @@
       <c r="M1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1297,11 @@
       <c r="M2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1312,6 +1340,141 @@
       </c>
       <c r="M3" t="s">
         <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N6" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +3862,7 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54350B65-B97B-416E-A18E-12EDC11B690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88962179-7873-42F1-A88B-CBEDA61D5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>/RETOUR_TPMEP/</t>
   </si>
   <si>
-    <t>TPMEP</t>
-  </si>
-  <si>
     <t>/RETOUR_CURE_THERMALE/</t>
   </si>
   <si>
@@ -791,6 +788,9 @@
   </si>
   <si>
     <t>remonte</t>
+  </si>
+  <si>
+    <t>Trame retour TPMEP</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1192,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
     <col min="11" max="11" width="26.85546875" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="25.42578125" customWidth="1"/>
@@ -1233,28 +1233,28 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" t="s">
-        <v>136</v>
-      </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="N1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1283,22 +1283,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L2" t="s">
-        <v>138</v>
-      </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1327,22 +1327,22 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1365,28 +1365,28 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
         <v>135</v>
       </c>
-      <c r="J4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" t="s">
-        <v>136</v>
-      </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1409,28 +1409,28 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" t="s">
         <v>135</v>
       </c>
-      <c r="J5" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" t="s">
-        <v>136</v>
-      </c>
       <c r="M5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1453,28 +1453,28 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="s">
         <v>135</v>
       </c>
-      <c r="J6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K6" t="s">
-        <v>135</v>
-      </c>
-      <c r="L6" t="s">
-        <v>136</v>
-      </c>
       <c r="M6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -1519,25 +1519,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1554,25 +1554,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1616,34 +1616,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1651,34 +1651,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,34 +1721,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1756,34 +1756,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1791,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>15</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>15</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1896,34 +1896,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1931,34 +1931,34 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1966,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>15</v>
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2001,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -2013,22 +2013,22 @@
         <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>20</v>
@@ -2057,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>20</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2106,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>20</v>
@@ -2127,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,34 +2180,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D1" s="5">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H1" s="5">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2215,34 +2215,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2250,34 +2250,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2285,34 +2285,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2320,34 +2320,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2355,34 +2355,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>14</v>
@@ -2544,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>17</v>
@@ -2553,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -2579,7 +2579,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>17</v>
@@ -2588,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -2611,25 +2611,25 @@
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -2646,25 +2646,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -2681,25 +2681,25 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -2716,25 +2716,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -2754,7 +2754,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>17</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -2789,7 +2789,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>17</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -2821,25 +2821,25 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="K9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -2856,25 +2856,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -2891,25 +2891,25 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="K11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -2929,7 +2929,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>15</v>
@@ -2938,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -2964,7 +2964,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>15</v>
@@ -2973,13 +2973,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -2996,25 +2996,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1</v>
@@ -3066,25 +3066,25 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
@@ -3104,7 +3104,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>17</v>
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>29</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3321,25 +3321,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H1" s="5">
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -3356,25 +3356,25 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>26</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>24</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -3461,25 +3461,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -3496,25 +3496,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3561,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -3570,16 +3570,16 @@
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3623,31 +3623,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H1" s="2">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="11">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="11">
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3722,37 +3722,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3789,31 +3789,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3821,31 +3821,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3885,31 +3885,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3917,31 +3917,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>242</v>
       </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>243</v>
-      </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88962179-7873-42F1-A88B-CBEDA61D5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70A50F-7D66-474D-A9EB-C16FF5FD71EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="254">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -791,6 +791,15 @@
   </si>
   <si>
     <t>Trame retour TPMEP</t>
+  </si>
+  <si>
+    <t>tpmepmail</t>
+  </si>
+  <si>
+    <t>tpmepremonte</t>
+  </si>
+  <si>
+    <t>tpmepaffectation</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1201,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
         <v>109</v>
@@ -1406,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="G5" t="s">
         <v>109</v>
@@ -1450,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
         <v>109</v>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70A50F-7D66-474D-A9EB-C16FF5FD71EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2D2FD-BE2D-402D-ABE6-C617B097D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="253">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -791,9 +791,6 @@
   </si>
   <si>
     <t>Trame retour TPMEP</t>
-  </si>
-  <si>
-    <t>tpmepmail</t>
   </si>
   <si>
     <t>tpmepremonte</t>
@@ -1202,7 +1199,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>109</v>
@@ -1415,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G5" t="s">
         <v>109</v>
@@ -1459,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G6" t="s">
         <v>109</v>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2D2FD-BE2D-402D-ABE6-C617B097D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9988D4-F0D2-48B5-8339-2683F7A0DB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,10 +793,10 @@
     <t>Trame retour TPMEP</t>
   </si>
   <si>
-    <t>tpmepremonte</t>
-  </si>
-  <si>
-    <t>tpmepaffectation</t>
+    <t xml:space="preserve"> POLE </t>
+  </si>
+  <si>
+    <t>STATUT</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1198,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1453,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>252</v>
-      </c>
-      <c r="G6" t="s">
-        <v>109</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3298,7 +3298,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9988D4-F0D2-48B5-8339-2683F7A0DB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DF4EF-B329-4032-B017-8613CBE10BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,10 +793,10 @@
     <t>Trame retour TPMEP</t>
   </si>
   <si>
-    <t xml:space="preserve"> POLE </t>
-  </si>
-  <si>
     <t>STATUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLE </t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6">
         <v>0</v>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60DF4EF-B329-4032-B017-8613CBE10BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A812F3-8672-41C8-888C-36038F1894CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1198,8 +1198,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
         <v>251</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>134</v>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A812F3-8672-41C8-888C-36038F1894CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7AF179-E52A-4D66-9438-BDC45D490374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="255">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -358,15 +358,9 @@
     <t>RECLAM_TIERS</t>
   </si>
   <si>
-    <t>.xlsx//nb fichier pdf</t>
-  </si>
-  <si>
     <t>recherchefactureinteriale</t>
   </si>
   <si>
-    <t>Facture interiale</t>
-  </si>
-  <si>
     <t>Saisie RIB</t>
   </si>
   <si>
@@ -763,9 +757,6 @@
     <t>/RETOUR_RECHERCHE FACTURE INTERIALE/</t>
   </si>
   <si>
-    <t>recherchefacturemacif</t>
-  </si>
-  <si>
     <t>/RETOUR_RECHERCHE FACTURE MACIF/</t>
   </si>
   <si>
@@ -797,6 +788,21 @@
   </si>
   <si>
     <t xml:space="preserve">POLE </t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE INTERIALE</t>
+  </si>
+  <si>
+    <t>TRAME RETENTION INTERIALE</t>
+  </si>
+  <si>
+    <t>SCAN</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE MACIF</t>
   </si>
 </sst>
 </file>
@@ -863,11 +869,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1198,8 +1203,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,28 +1244,28 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1289,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M2" t="s">
         <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1333,22 +1338,22 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1371,28 +1376,28 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,22 +1426,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1453,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1501,92 +1506,92 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="100.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="53.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="5"/>
-    <col min="9" max="9" width="32.7109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="100.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="53.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="32.7109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="7"/>
-    </row>
-    <row r="20" spans="5:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="20" spans="5:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,553 +1609,553 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="55" style="5" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="68.85546875" style="5" customWidth="1"/>
-    <col min="10" max="11" width="41.85546875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="39.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="68.85546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="41.85546875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="J14" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>234</v>
+      <c r="J15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2177,222 +2182,222 @@
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="4">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="5">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="J5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2424,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -2445,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
         <v>83</v>
@@ -2459,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2467,7 +2472,7 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2480,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>21</v>
@@ -2533,598 +2538,598 @@
     <col min="11" max="11" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3159,35 +3164,35 @@
     <col min="10" max="10" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3196,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -3217,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -3228,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3249,42 +3254,42 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3313,213 +3318,213 @@
     <col min="11" max="11" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="5">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="K2" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="J5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3550,46 +3555,46 @@
     <col min="11" max="11" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>132</v>
+      <c r="K1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
@@ -3637,7 +3642,7 @@
       <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3650,7 +3655,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>90</v>
@@ -3685,80 +3690,80 @@
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="11">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="11">
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="10">
+        <v>0</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="L1" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>228</v>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3777,17 +3782,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="55.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="34" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="5"/>
-    <col min="9" max="9" width="47.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="53.140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="43.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="34" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="47.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="53.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3797,20 +3802,20 @@
       <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>171</v>
+      <c r="C1" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>169</v>
+      <c r="G1" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -3829,20 +3834,20 @@
       <c r="B2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>172</v>
+      <c r="C2" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>170</v>
+      <c r="G2" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -3855,9 +3860,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="7"/>
-    </row>
-    <row r="20" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3866,89 +3871,113 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Feuil10"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" customWidth="1"/>
-    <col min="9" max="9" width="124.42578125" customWidth="1"/>
-    <col min="10" max="10" width="143.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="45.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="11" max="11" width="43" customWidth="1"/>
+    <col min="12" max="12" width="40.140625" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>240</v>
+      <c r="B1" t="s">
+        <v>238</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="K1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>242</v>
+      <c r="B2" t="s">
+        <v>239</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>241</v>
-      </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="K2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7AF179-E52A-4D66-9438-BDC45D490374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E854296B-C18A-42C6-BEB7-A24913181231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="150" windowWidth="20655" windowHeight="10920" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="257">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -803,6 +803,12 @@
   </si>
   <si>
     <t>/RETOUR_RECHERCHE FACTURE MACIF</t>
+  </si>
+  <si>
+    <t>TRAME RETENTION MACIF</t>
+  </si>
+  <si>
+    <t>recherchefacturemacif</t>
   </si>
 </sst>
 </file>
@@ -3873,8 +3879,8 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,7 +3958,7 @@
         <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
         <v>253</v>
@@ -3964,7 +3970,7 @@
         <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K2" t="s">
         <v>254</v>
@@ -3973,7 +3979,7 @@
         <v>254</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E854296B-C18A-42C6-BEB7-A24913181231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A7ADA-2AFE-4C46-8F5D-ACBD828C7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="150" windowWidth="20655" windowHeight="10920" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3782,8 +3782,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3879,7 +3879,7 @@
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A7ADA-2AFE-4C46-8F5D-ACBD828C7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB518B9B-65DA-4459-A500-BA2FDDA09895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3677,8 +3677,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +3782,7 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB518B9B-65DA-4459-A500-BA2FDDA09895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F22B3-A208-4E8F-BAF5-7EC8E64AA59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1609,8 +1609,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,7 +3677,7 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F22B3-A208-4E8F-BAF5-7EC8E64AA59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2F5B06-2A2D-4315-AD1D-F09D9085C57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1609,8 +1609,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,9 +1622,10 @@
     <col min="5" max="5" width="27.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="68.85546875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="41.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="65.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" style="4" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -2525,8 +2526,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,10 +2538,10 @@
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="58.7109375" customWidth="1"/>
-    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
     <col min="11" max="11" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2F5B06-2A2D-4315-AD1D-F09D9085C57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96BBB12-789A-46D8-920B-6DCB9B70072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1609,8 +1609,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96BBB12-789A-46D8-920B-6DCB9B70072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8F752E-AC6A-41D1-A16F-4B7F24266C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1609,8 +1609,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8F752E-AC6A-41D1-A16F-4B7F24266C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00319DA6-DBE7-4061-9EB0-803D432D5BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="260">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -809,6 +809,15 @@
   </si>
   <si>
     <t>recherchefacturemacif</t>
+  </si>
+  <si>
+    <t>inovgestionillisiblecbtp</t>
+  </si>
+  <si>
+    <t>/RETOUR_GESTION_ILLISIBLE/HOSPI/ALMERYS</t>
+  </si>
+  <si>
+    <t>/RETOUR_GESTION_ILLISIBLE/HOSPI/CBTP</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1618,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2145,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>20</v>
@@ -2154,14 +2163,116 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>4</v>
       </c>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00319DA6-DBE7-4061-9EB0-803D432D5BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E50840-97FC-4B8F-B79A-0765458BD613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1618,8 +1618,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E50840-97FC-4B8F-B79A-0765458BD613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0840CE0F-3782-4348-B53B-3F62B3D1E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="260">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -1616,10 +1616,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Feuil11"/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>232</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>232</v>
@@ -2133,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>232</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>20</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>232</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>20</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>232</v>
@@ -2233,47 +2233,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>4</v>
       </c>
     </row>

--- a/Inovcomserveur.xlsx
+++ b/Inovcomserveur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0840CE0F-3782-4348-B53B-3F62B3D1E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B928A06-C8A7-4C3C-AC95-33571EF6FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1618,8 +1618,8 @@
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,8 +2602,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
